--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_36_4.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_36_4.xlsx
@@ -518,331 +518,331 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_36_4_13</t>
+          <t>model_36_4_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999634578500886</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9990001885769189</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9998847293347098</v>
+        <v>0.9999882463846979</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9981241689474042</v>
+        <v>0.9999999959065347</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9998308904917239</v>
+        <v>0.9999977184970554</v>
       </c>
       <c r="G2" t="n">
-        <v>3.411049292736611e-05</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0009332800767969486</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I2" t="n">
-        <v>8.429086506521073e-05</v>
+        <v>1.776432046340084e-06</v>
       </c>
       <c r="J2" t="n">
-        <v>0.000118342620633046</v>
+        <v>1.373824449548822e-09</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0001013178875162526</v>
+        <v>8.889029246581854e-07</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0004258941943071183</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M2" t="n">
-        <v>0.005840418899990488</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000030241779237</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O2" t="n">
-        <v>0.006089057623896909</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P2" t="n">
-        <v>126.571811021056</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q2" t="n">
-        <v>191.1722297390706</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_36_4_14</t>
+          <t>model_36_4_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999633746910532</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9990001734361759</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9998835908505713</v>
+        <v>0.9999882463846979</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9980978899078674</v>
+        <v>0.9999999959065347</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9998288140384288</v>
+        <v>0.9999977184970554</v>
       </c>
       <c r="G3" t="n">
-        <v>3.418811823654927e-05</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.000933294210015932</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I3" t="n">
-        <v>8.51233736019791e-05</v>
+        <v>1.776432046340084e-06</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0001200005153577362</v>
+        <v>1.373824449548822e-09</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0001025619444798576</v>
+        <v>8.889029246581854e-07</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0004222615346350764</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0058470606492963</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000030310600508</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O3" t="n">
-        <v>0.006095982126220986</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P3" t="n">
-        <v>126.5672647884879</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q3" t="n">
-        <v>191.1676835065026</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_36_4_12</t>
+          <t>model_36_4_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999634816367068</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9990000866354591</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9998859106882048</v>
+        <v>0.9999882463846979</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9981517499941133</v>
+        <v>0.9999999959065347</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9998330654783526</v>
+        <v>0.9999977184970554</v>
       </c>
       <c r="G4" t="n">
-        <v>3.408828916337532e-05</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0009333752346748731</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I4" t="n">
-        <v>8.342700861232824e-05</v>
+        <v>1.776432046340084e-06</v>
       </c>
       <c r="J4" t="n">
-        <v>0.000116602584747172</v>
+        <v>1.373824449548822e-09</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0001000147966797501</v>
+        <v>8.889029246581854e-07</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0004302863654554501</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M4" t="n">
-        <v>0.005838517719710656</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N4" t="n">
-        <v>1.00003022209376</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O4" t="n">
-        <v>0.006087075506436578</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P4" t="n">
-        <v>126.5731133179062</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q4" t="n">
-        <v>191.1735320359208</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_36_4_15</t>
+          <t>model_36_4_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999632468127994</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9990000675767523</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9998825129444342</v>
+        <v>0.9999882463846979</v>
       </c>
       <c r="E5" t="n">
-        <v>0.998072877913581</v>
+        <v>0.9999999959065347</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9998268393528779</v>
+        <v>0.9999977184970554</v>
       </c>
       <c r="G5" t="n">
-        <v>3.430748697336994e-05</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0009333930251411007</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I5" t="n">
-        <v>8.591158490038169e-05</v>
+        <v>1.776432046340084e-06</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0001215784746025279</v>
+        <v>1.373824449548822e-09</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0001037450297514548</v>
+        <v>8.889029246581854e-07</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0004190237403112502</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M5" t="n">
-        <v>0.005857259339774016</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000030416430787</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O5" t="n">
-        <v>0.006106614996066537</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P5" t="n">
-        <v>126.5602938970096</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q5" t="n">
-        <v>191.1607126150242</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_36_4_16</t>
+          <t>model_36_4_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999630891712902</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9989998985413096</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9998814860738277</v>
+        <v>0.9999882463846979</v>
       </c>
       <c r="E6" t="n">
-        <v>0.998049351817901</v>
+        <v>0.9999999959065347</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9998249740449175</v>
+        <v>0.9999977184970554</v>
       </c>
       <c r="G6" t="n">
-        <v>3.445463840248097e-05</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0009335508123071412</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I6" t="n">
-        <v>8.666247682523703e-05</v>
+        <v>1.776432046340084e-06</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0001230626913245943</v>
+        <v>1.373824449548822e-09</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0001048625840749157</v>
+        <v>8.889029246581854e-07</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0004161175122065847</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M6" t="n">
-        <v>0.005869807356505065</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000030546892725</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O6" t="n">
-        <v>0.006119697207847802</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P6" t="n">
-        <v>126.551733855973</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q6" t="n">
-        <v>191.1521525739877</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_36_4_11</t>
+          <t>model_36_4_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999634205217131</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9989998297377809</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9998871097786913</v>
+        <v>0.9999882463846979</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9981804321238021</v>
+        <v>0.9999999959065347</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9998353073507149</v>
+        <v>0.9999977184970554</v>
       </c>
       <c r="G7" t="n">
-        <v>3.41453373273615e-05</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0009336150373809912</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I7" t="n">
-        <v>8.255018210884463e-05</v>
+        <v>1.776432046340084e-06</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0001147930836260448</v>
+        <v>1.373824449548822e-09</v>
       </c>
       <c r="K7" t="n">
-        <v>9.867163286744472e-05</v>
+        <v>8.889029246581854e-07</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0004358676900405807</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0058434011780265</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000030272671686</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O7" t="n">
-        <v>0.006092166863683081</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P7" t="n">
-        <v>126.5697690326784</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q7" t="n">
-        <v>191.170187750693</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="8">
@@ -852,1042 +852,1042 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999629162883835</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9989996891118977</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9998805451807785</v>
+        <v>0.9999882463846979</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9980274009832603</v>
+        <v>0.9999999959065347</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9998232441431486</v>
+        <v>0.9999977184970554</v>
       </c>
       <c r="G8" t="n">
-        <v>3.461601700712837e-05</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0009337463054701494</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I8" t="n">
-        <v>8.735049826456726e-05</v>
+        <v>1.776432046340084e-06</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0001244475278176661</v>
+        <v>1.373824449548822e-09</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0001058990130411167</v>
+        <v>8.889029246581854e-07</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0004135160598446634</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M8" t="n">
-        <v>0.005883537796864092</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000030689968234</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O8" t="n">
-        <v>0.006134012181478843</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P8" t="n">
-        <v>126.542388127467</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q8" t="n">
-        <v>191.1428068454816</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_36_4_18</t>
+          <t>model_36_4_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999627336636333</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9989994578074637</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9998796677113222</v>
+        <v>0.9999882463846979</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9980070064776717</v>
+        <v>0.9999999959065347</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9998216348870581</v>
+        <v>0.9999977184970554</v>
       </c>
       <c r="G9" t="n">
-        <v>3.47864891952352e-05</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0009339622180062957</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I9" t="n">
-        <v>8.799214164677046e-05</v>
+        <v>1.776432046340084e-06</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0001257341784648664</v>
+        <v>1.373824449548822e-09</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0001068631600558184</v>
+        <v>8.889029246581854e-07</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0004111960828498066</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M9" t="n">
-        <v>0.00589800722237903</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000030841105959</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O9" t="n">
-        <v>0.006149097600393792</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P9" t="n">
-        <v>126.5325629761707</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q9" t="n">
-        <v>191.1329816941853</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_36_4_10</t>
+          <t>model_36_4_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999632476601427</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9989993702947531</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9998882991213461</v>
+        <v>0.9999882463846979</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9982101957959686</v>
+        <v>0.9999999959065347</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9998376018963115</v>
+        <v>0.9999977184970554</v>
       </c>
       <c r="G10" t="n">
-        <v>3.430669601559549e-05</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0009340439072802518</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I10" t="n">
-        <v>8.168048363887849e-05</v>
+        <v>1.776432046340084e-06</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0001129153500428589</v>
+        <v>1.373824449548822e-09</v>
       </c>
       <c r="K10" t="n">
-        <v>9.729691115590361e-05</v>
+        <v>8.889029246581854e-07</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0004419767209231231</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M10" t="n">
-        <v>0.005857191819942001</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000030415729537</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O10" t="n">
-        <v>0.006106544601775489</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P10" t="n">
-        <v>126.5603400074632</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q10" t="n">
-        <v>191.1607587254778</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_36_4_19</t>
+          <t>model_36_4_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999625466264928</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9989992084669754</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9998788585674422</v>
+        <v>0.9999882463846979</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9979880246209925</v>
+        <v>0.9999999959065347</v>
       </c>
       <c r="F11" t="n">
-        <v>0.999820139496007</v>
+        <v>0.9999977184970554</v>
       </c>
       <c r="G11" t="n">
-        <v>3.496108015587381e-05</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0009341949664072979</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I11" t="n">
-        <v>8.858382243068057e-05</v>
+        <v>1.776432046340084e-06</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0001269317077737012</v>
+        <v>1.373824449548822e-09</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0001077590875755293</v>
+        <v>8.889029246581854e-07</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0004091041520089976</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M11" t="n">
-        <v>0.005912789540975884</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000030995895316</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O11" t="n">
-        <v>0.006164509232896933</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P11" t="n">
-        <v>126.5225502214942</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q11" t="n">
-        <v>191.1229689395088</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_36_4_20</t>
+          <t>model_36_4_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999623636926249</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9989989586362241</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9998781155245445</v>
+        <v>0.9999882463846979</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9979706257789084</v>
+        <v>0.9999999959065347</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9998187760466914</v>
+        <v>0.9999977184970554</v>
       </c>
       <c r="G12" t="n">
-        <v>3.513184089163484e-05</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0009344281724473123</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I12" t="n">
-        <v>8.912716733522878e-05</v>
+        <v>1.776432046340084e-06</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0001280293676964072</v>
+        <v>1.373824449548822e-09</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0001085759653832687</v>
+        <v>8.889029246581854e-07</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0004072354062851571</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M12" t="n">
-        <v>0.005927211898661531</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000031147288862</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O12" t="n">
-        <v>0.006179545580207655</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P12" t="n">
-        <v>126.5128053815853</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q12" t="n">
-        <v>191.1132240995999</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_36_4_21</t>
+          <t>model_36_4_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999621830460715</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9989987031114327</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9998774488389257</v>
+        <v>0.9999882463846979</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9979544489107439</v>
+        <v>0.9999999959065347</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9998175136397955</v>
+        <v>0.9999977184970554</v>
       </c>
       <c r="G13" t="n">
-        <v>3.53004665198157e-05</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.000934666693623911</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I13" t="n">
-        <v>8.961467651539861e-05</v>
+        <v>1.776432046340084e-06</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0001290499356039322</v>
+        <v>1.373824449548822e-09</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0001093323060596654</v>
+        <v>8.889029246581854e-07</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0004055624399509315</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M13" t="n">
-        <v>0.005941419571097104</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000031296789458</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O13" t="n">
-        <v>0.006194358102672746</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P13" t="n">
-        <v>126.5032287565071</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q13" t="n">
-        <v>191.1036474745217</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_36_4_9</t>
+          <t>model_36_4_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999629201359512</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9989986129170464</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9998894221965559</v>
+        <v>0.9999882463846979</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9982404945881324</v>
+        <v>0.9999999959065347</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9998398769599057</v>
+        <v>0.9999977184970554</v>
       </c>
       <c r="G14" t="n">
-        <v>3.461242547157654e-05</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0009347508861243944</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I14" t="n">
-        <v>8.085924277315091e-05</v>
+        <v>1.776432046340084e-06</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0001110038567547462</v>
+        <v>1.373824449548822e-09</v>
       </c>
       <c r="K14" t="n">
-        <v>9.593386161672242e-05</v>
+        <v>8.889029246581854e-07</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0004486556470405506</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M14" t="n">
-        <v>0.005883232569903772</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N14" t="n">
-        <v>1.00003068678404</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O14" t="n">
-        <v>0.006133693960374916</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P14" t="n">
-        <v>126.5425956453846</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q14" t="n">
-        <v>191.1430143633992</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_36_4_22</t>
+          <t>model_36_4_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999620103641964</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9989984585359105</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9998768283134871</v>
+        <v>0.9999882463846979</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9979397539969995</v>
+        <v>0.9999999959065347</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9998163612700912</v>
+        <v>0.9999977184970554</v>
       </c>
       <c r="G15" t="n">
-        <v>3.546165747041762e-05</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.000934894994138246</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I15" t="n">
-        <v>9.006843138776131e-05</v>
+        <v>1.776432046340084e-06</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0001299770098199642</v>
+        <v>1.373824449548822e-09</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0001100227206038627</v>
+        <v>8.889029246581854e-07</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0004040619240829299</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M15" t="n">
-        <v>0.005954969141013043</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000031439698596</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O15" t="n">
-        <v>0.006208484505831482</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P15" t="n">
-        <v>126.4941170328721</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q15" t="n">
-        <v>191.0945357508867</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_36_4_23</t>
+          <t>model_36_4_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999618440985766</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9989982206245456</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D16" t="n">
-        <v>0.999876268841268</v>
+        <v>0.9999882463846979</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9979260937009584</v>
+        <v>0.9999999959065347</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9998153004874188</v>
+        <v>0.9999977184970554</v>
       </c>
       <c r="G16" t="n">
-        <v>3.561685912826279e-05</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0009351170739543222</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I16" t="n">
-        <v>9.047754152179856e-05</v>
+        <v>1.776432046340084e-06</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0001308388119688809</v>
+        <v>1.373824449548822e-09</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0001106582629845201</v>
+        <v>8.889029246581854e-07</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0004027282161260917</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M16" t="n">
-        <v>0.005967986187003351</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N16" t="n">
-        <v>1.00003157729773</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O16" t="n">
-        <v>0.006222055714418598</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P16" t="n">
-        <v>126.4853829223741</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q16" t="n">
-        <v>191.0858016403887</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_36_4_24</t>
+          <t>model_36_4_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999616878660647</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9989979964119254</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D17" t="n">
-        <v>0.999875758038864</v>
+        <v>0.9999882463846979</v>
       </c>
       <c r="E17" t="n">
-        <v>0.997913690149945</v>
+        <v>0.9999999959065347</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9998143358615597</v>
+        <v>0.9999977184970554</v>
       </c>
       <c r="G17" t="n">
-        <v>3.576269532035489e-05</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0009353263665934147</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I17" t="n">
-        <v>9.085106219515953e-05</v>
+        <v>1.776432046340084e-06</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0001316213284593984</v>
+        <v>1.373824449548822e-09</v>
       </c>
       <c r="K17" t="n">
-        <v>0.000111236195327279</v>
+        <v>8.889029246581854e-07</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0004015107330939216</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M17" t="n">
-        <v>0.005980191913338141</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000031706593602</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O17" t="n">
-        <v>0.006234781063792796</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P17" t="n">
-        <v>126.4772104760124</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q17" t="n">
-        <v>191.077629194027</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_36_4_8</t>
+          <t>model_36_4_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999623798617098</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9989974668513077</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9998903533649797</v>
+        <v>0.9999882463846979</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9982703126137356</v>
+        <v>0.9999999959065347</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9998420210185579</v>
+        <v>0.9999977184970554</v>
       </c>
       <c r="G18" t="n">
-        <v>3.511674776067039e-05</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0009358206881850063</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I18" t="n">
-        <v>8.017833239780588e-05</v>
+        <v>1.776432046340084e-06</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0001091226941164027</v>
+        <v>1.373824449548822e-09</v>
       </c>
       <c r="K18" t="n">
-        <v>9.464930053222641e-05</v>
+        <v>8.889029246581854e-07</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0004559337103744487</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M18" t="n">
-        <v>0.005925938555256069</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N18" t="n">
-        <v>1.00003113390755</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O18" t="n">
-        <v>0.006178218027937237</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P18" t="n">
-        <v>126.5136647942218</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q18" t="n">
-        <v>191.1140835122364</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_36_4_7</t>
+          <t>model_36_4_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999615569903176</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9989958240017374</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D19" t="n">
-        <v>0.999890959547198</v>
+        <v>0.9999882463846979</v>
       </c>
       <c r="E19" t="n">
-        <v>0.998299278316534</v>
+        <v>0.9999999959065347</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9998439139697953</v>
+        <v>0.9999977184970554</v>
       </c>
       <c r="G19" t="n">
-        <v>3.588486208534521e-05</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0009373542161461596</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I19" t="n">
-        <v>7.973506590465805e-05</v>
+        <v>1.776432046340084e-06</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0001072953029060355</v>
+        <v>1.373824449548822e-09</v>
       </c>
       <c r="K19" t="n">
-        <v>9.351518440534677e-05</v>
+        <v>8.889029246581854e-07</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0004639119691210435</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M19" t="n">
-        <v>0.005990397489761862</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000031814904565</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O19" t="n">
-        <v>0.006245421112733331</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P19" t="n">
-        <v>126.4703900406585</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q19" t="n">
-        <v>191.0708087586732</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_36_4_6</t>
+          <t>model_36_4_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999603624205954</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9989935379656122</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9998910402438465</v>
+        <v>0.9999882463846979</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9983260309204591</v>
+        <v>0.9999999959065347</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9998453746335999</v>
+        <v>0.9999977184970554</v>
       </c>
       <c r="G20" t="n">
-        <v>3.699994048559272e-05</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0009394881305235892</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I20" t="n">
-        <v>7.967605704671739e-05</v>
+        <v>1.776432046340084e-06</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0001056075319029527</v>
+        <v>1.373824449548822e-09</v>
       </c>
       <c r="K20" t="n">
-        <v>9.264006287868435e-05</v>
+        <v>8.889029246581854e-07</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0004725927174445285</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M20" t="n">
-        <v>0.006082757638242109</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N20" t="n">
-        <v>1.00003280351399</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O20" t="n">
-        <v>0.006341713223946247</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P20" t="n">
-        <v>126.4091885076377</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q20" t="n">
-        <v>191.0096072256523</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_36_4_5</t>
+          <t>model_36_4_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999586848780577</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9989903977213505</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9998903371352137</v>
+        <v>0.9999882463846979</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9983495623470969</v>
+        <v>0.9999999959065347</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9998461815980335</v>
+        <v>0.9999977184970554</v>
       </c>
       <c r="G21" t="n">
-        <v>3.85658528088864e-05</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0009424194107011303</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I21" t="n">
-        <v>8.019020030025707e-05</v>
+        <v>1.776432046340084e-06</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0001041229788608746</v>
+        <v>1.373824449548822e-09</v>
       </c>
       <c r="K21" t="n">
-        <v>9.215658958056584e-05</v>
+        <v>8.889029246581854e-07</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0004820429791119322</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M21" t="n">
-        <v>0.006210141126326068</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000034191825056</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O21" t="n">
-        <v>0.006474519690838112</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P21" t="n">
-        <v>126.3262866305544</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q21" t="n">
-        <v>190.926705348569</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_36_4_4</t>
+          <t>model_36_4_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999563610133571</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9989861598025987</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D22" t="n">
-        <v>0.999888356685451</v>
+        <v>0.9999882463846979</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9983681418367825</v>
+        <v>0.9999999959065347</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9998459545263895</v>
+        <v>0.9999977184970554</v>
       </c>
       <c r="G22" t="n">
-        <v>4.073507850109313e-05</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0009463753218327737</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I22" t="n">
-        <v>8.163839029119729e-05</v>
+        <v>1.776432046340084e-06</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0001029508341219523</v>
+        <v>1.373824449548822e-09</v>
       </c>
       <c r="K22" t="n">
-        <v>9.229263408518352e-05</v>
+        <v>8.889029246581854e-07</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0004923471759296937</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M22" t="n">
-        <v>0.006382403818397355</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000036115023429</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O22" t="n">
-        <v>0.006654115962343805</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P22" t="n">
-        <v>126.2168419141739</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q22" t="n">
-        <v>190.8172606321885</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_36_4_3</t>
+          <t>model_36_4_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999531980878215</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9989804842128244</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9998845690153673</v>
+        <v>0.9999882463846979</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9983792526525594</v>
+        <v>0.9999999959065347</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9998442239741834</v>
+        <v>0.9999977184970554</v>
       </c>
       <c r="G23" t="n">
-        <v>4.368753065216182e-05</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0009516732357574894</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I23" t="n">
-        <v>8.440809745938539e-05</v>
+        <v>1.776432046340084e-06</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0001022498738437869</v>
+        <v>1.373824449548822e-09</v>
       </c>
       <c r="K23" t="n">
-        <v>9.332945274515754e-05</v>
+        <v>8.889029246581854e-07</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0005036132315694161</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M23" t="n">
-        <v>0.00660965435194321</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000038732616975</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O23" t="n">
-        <v>0.006891041021576164</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P23" t="n">
-        <v>126.0768956726947</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q23" t="n">
-        <v>190.6773143907093</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_36_4_2</t>
+          <t>model_36_4_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999489235171576</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9989729112057136</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9998780714814411</v>
+        <v>0.9999882463846979</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9983797936934687</v>
+        <v>0.9999999959065347</v>
       </c>
       <c r="F24" t="n">
-        <v>0.999840288066388</v>
+        <v>0.9999977184970554</v>
       </c>
       <c r="G24" t="n">
-        <v>4.767765473496278e-05</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0009587423054788169</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I24" t="n">
-        <v>8.915937354550534e-05</v>
+        <v>1.776432046340084e-06</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0001022157405997547</v>
+        <v>1.373824449548822e-09</v>
       </c>
       <c r="K24" t="n">
-        <v>9.568755707262999e-05</v>
+        <v>8.889029246581854e-07</v>
       </c>
       <c r="L24" t="n">
-        <v>0.000516539010835354</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M24" t="n">
-        <v>0.006904900776619659</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000042270192697</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O24" t="n">
-        <v>0.007198856697795444</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P24" t="n">
-        <v>125.9020954480451</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q24" t="n">
-        <v>190.5025141660598</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_36_4_1</t>
+          <t>model_36_4_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999431985283816</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9989628612604983</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9998676875677827</v>
+        <v>0.9999882463846979</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9983659404287352</v>
+        <v>0.9999999959065347</v>
       </c>
       <c r="F25" t="n">
-        <v>0.999833221821988</v>
+        <v>0.9999977184970554</v>
       </c>
       <c r="G25" t="n">
-        <v>5.302168045924745e-05</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0009681234881957466</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I25" t="n">
-        <v>9.675253753767607e-05</v>
+        <v>1.776432046340084e-06</v>
       </c>
       <c r="J25" t="n">
-        <v>0.00010308971677721</v>
+        <v>1.373824449548822e-09</v>
       </c>
       <c r="K25" t="n">
-        <v>9.992112715744306e-05</v>
+        <v>8.889029246581854e-07</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0005309081028235518</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M25" t="n">
-        <v>0.007281598757089507</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000047008114443</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O25" t="n">
-        <v>0.007591591491166212</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P25" t="n">
-        <v>125.6896193255754</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q25" t="n">
-        <v>190.2900380435901</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_36_4_0</t>
+          <t>model_36_4_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999356068917526</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9989497280915161</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9998519081240915</v>
+        <v>0.9999882463846979</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9983328701393828</v>
+        <v>0.9999999959065347</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9998218512910795</v>
+        <v>0.9999977184970554</v>
       </c>
       <c r="G26" t="n">
-        <v>6.010814001817554e-05</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0009803827249611802</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0001082911450023514</v>
+        <v>1.776432046340084e-06</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0001051760585624372</v>
+        <v>1.373824449548822e-09</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0001067335068002099</v>
+        <v>8.889029246581854e-07</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0005465519568859763</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M26" t="n">
-        <v>0.007752943958147481</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000053290848205</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O26" t="n">
-        <v>0.008083002833252301</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P26" t="n">
-        <v>125.4387305687205</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q26" t="n">
-        <v>190.0391492867351</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
   </sheetData>
